--- a/natmiOut/OldD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Lrp1</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.77030988744842</v>
+        <v>6.846662999999999</v>
       </c>
       <c r="H2">
-        <v>6.77030988744842</v>
+        <v>20.539989</v>
       </c>
       <c r="I2">
-        <v>0.09584887830111084</v>
+        <v>0.09159999623075178</v>
       </c>
       <c r="J2">
-        <v>0.09584887830111084</v>
+        <v>0.09952666951304695</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>22.74216323644829</v>
+        <v>27.021551413304</v>
       </c>
       <c r="R2">
-        <v>22.74216323644829</v>
+        <v>243.193962719736</v>
       </c>
       <c r="S2">
-        <v>0.0006841253951777058</v>
+        <v>0.0007403375366212384</v>
       </c>
       <c r="T2">
-        <v>0.0006841253951777058</v>
+        <v>0.0008278313395640766</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.77030988744842</v>
+        <v>6.846662999999999</v>
       </c>
       <c r="H3">
-        <v>6.77030988744842</v>
+        <v>20.539989</v>
       </c>
       <c r="I3">
-        <v>0.09584887830111084</v>
+        <v>0.09159999623075178</v>
       </c>
       <c r="J3">
-        <v>0.09584887830111084</v>
+        <v>0.09952666951304695</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>1185.01937473793</v>
+        <v>1272.128774925493</v>
       </c>
       <c r="R3">
-        <v>1185.01937473793</v>
+        <v>11449.15897432944</v>
       </c>
       <c r="S3">
-        <v>0.03564752568201308</v>
+        <v>0.0348538345962489</v>
       </c>
       <c r="T3">
-        <v>0.03564752568201308</v>
+        <v>0.03897289432930498</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.77030988744842</v>
+        <v>6.846662999999999</v>
       </c>
       <c r="H4">
-        <v>6.77030988744842</v>
+        <v>20.539989</v>
       </c>
       <c r="I4">
-        <v>0.09584887830111084</v>
+        <v>0.09159999623075178</v>
       </c>
       <c r="J4">
-        <v>0.09584887830111084</v>
+        <v>0.09952666951304695</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>782.4468151679035</v>
+        <v>803.383495024333</v>
       </c>
       <c r="R4">
-        <v>782.4468151679035</v>
+        <v>7230.451455218997</v>
       </c>
       <c r="S4">
-        <v>0.02353741511161</v>
+        <v>0.02201113283879176</v>
       </c>
       <c r="T4">
-        <v>0.02353741511161</v>
+        <v>0.0246124297120194</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.77030988744842</v>
+        <v>6.846662999999999</v>
       </c>
       <c r="H5">
-        <v>6.77030988744842</v>
+        <v>20.539989</v>
       </c>
       <c r="I5">
-        <v>0.09584887830111084</v>
+        <v>0.09159999623075178</v>
       </c>
       <c r="J5">
-        <v>0.09584887830111084</v>
+        <v>0.09952666951304695</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>918.4149095904787</v>
+        <v>956.9180505069969</v>
       </c>
       <c r="R5">
-        <v>918.4149095904787</v>
+        <v>8612.262454562973</v>
       </c>
       <c r="S5">
-        <v>0.02762758126516765</v>
+        <v>0.02621767867524985</v>
       </c>
       <c r="T5">
-        <v>0.02762758126516765</v>
+        <v>0.02931610918587859</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.77030988744842</v>
+        <v>6.846662999999999</v>
       </c>
       <c r="H6">
-        <v>6.77030988744842</v>
+        <v>20.539989</v>
       </c>
       <c r="I6">
-        <v>0.09584887830111084</v>
+        <v>0.09159999623075178</v>
       </c>
       <c r="J6">
-        <v>0.09584887830111084</v>
+        <v>0.09952666951304695</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>277.6505574169943</v>
+        <v>283.852884638562</v>
       </c>
       <c r="R6">
-        <v>277.6505574169943</v>
+        <v>1703.117307831372</v>
       </c>
       <c r="S6">
-        <v>0.008352230847142412</v>
+        <v>0.00777701258384003</v>
       </c>
       <c r="T6">
-        <v>0.008352230847142412</v>
+        <v>0.005797404946279906</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>46.1611256873765</v>
+        <v>49.93401766666667</v>
       </c>
       <c r="H7">
-        <v>46.1611256873765</v>
+        <v>149.802053</v>
       </c>
       <c r="I7">
-        <v>0.6535139737775172</v>
+        <v>0.6680562238937363</v>
       </c>
       <c r="J7">
-        <v>0.6535139737775172</v>
+        <v>0.7258669623098115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>155.0599415702921</v>
+        <v>197.0733225299191</v>
       </c>
       <c r="R7">
-        <v>155.0599415702921</v>
+        <v>1773.659902769272</v>
       </c>
       <c r="S7">
-        <v>0.004664483439860092</v>
+        <v>0.00539942270167838</v>
       </c>
       <c r="T7">
-        <v>0.004664483439860092</v>
+        <v>0.006037531675622552</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>46.1611256873765</v>
+        <v>49.93401766666667</v>
       </c>
       <c r="H8">
-        <v>46.1611256873765</v>
+        <v>149.802053</v>
       </c>
       <c r="I8">
-        <v>0.6535139737775172</v>
+        <v>0.6680562238937363</v>
       </c>
       <c r="J8">
-        <v>0.6535139737775172</v>
+        <v>0.7258669623098115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>8079.663886680644</v>
+        <v>9277.877518055817</v>
       </c>
       <c r="R8">
-        <v>8079.663886680644</v>
+        <v>83500.89766250235</v>
       </c>
       <c r="S8">
-        <v>0.2430509002995654</v>
+        <v>0.2541956559684872</v>
       </c>
       <c r="T8">
-        <v>0.2430509002995654</v>
+        <v>0.2842367433537547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>46.1611256873765</v>
+        <v>49.93401766666667</v>
       </c>
       <c r="H9">
-        <v>46.1611256873765</v>
+        <v>149.802053</v>
       </c>
       <c r="I9">
-        <v>0.6535139737775172</v>
+        <v>0.6680562238937363</v>
       </c>
       <c r="J9">
-        <v>0.6535139737775172</v>
+        <v>0.7258669623098115</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>5334.855623907838</v>
+        <v>5859.228887657164</v>
       </c>
       <c r="R9">
-        <v>5334.855623907838</v>
+        <v>52733.05998891447</v>
       </c>
       <c r="S9">
-        <v>0.1604821042737332</v>
+        <v>0.1605313852946428</v>
       </c>
       <c r="T9">
-        <v>0.1604821042737332</v>
+        <v>0.1795031389831175</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>46.1611256873765</v>
+        <v>49.93401766666667</v>
       </c>
       <c r="H10">
-        <v>46.1611256873765</v>
+        <v>149.802053</v>
       </c>
       <c r="I10">
-        <v>0.6535139737775172</v>
+        <v>0.6680562238937363</v>
       </c>
       <c r="J10">
-        <v>0.6535139737775172</v>
+        <v>0.7258669623098115</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>6261.909244857974</v>
+        <v>6978.985651779358</v>
       </c>
       <c r="R10">
-        <v>6261.909244857974</v>
+        <v>62810.87086601422</v>
       </c>
       <c r="S10">
-        <v>0.1883695535981223</v>
+        <v>0.1912105254996363</v>
       </c>
       <c r="T10">
-        <v>0.1883695535981223</v>
+        <v>0.2138079695182296</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>46.1611256873765</v>
+        <v>49.93401766666667</v>
       </c>
       <c r="H11">
-        <v>46.1611256873765</v>
+        <v>149.802053</v>
       </c>
       <c r="I11">
-        <v>0.6535139737775172</v>
+        <v>0.6680562238937363</v>
       </c>
       <c r="J11">
-        <v>0.6535139737775172</v>
+        <v>0.7258669623098115</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>1893.068779888056</v>
+        <v>2070.193166550807</v>
       </c>
       <c r="R11">
-        <v>1893.068779888056</v>
+        <v>12421.15899930484</v>
       </c>
       <c r="S11">
-        <v>0.05694693216623629</v>
+        <v>0.05671923442929162</v>
       </c>
       <c r="T11">
-        <v>0.05694693216623629</v>
+        <v>0.0422815787790872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1157,49 +1157,49 @@
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>17.7038186654947</v>
+        <v>0.1055886666666667</v>
       </c>
       <c r="H12">
-        <v>17.7038186654947</v>
+        <v>0.316766</v>
       </c>
       <c r="I12">
-        <v>0.2506371479213719</v>
+        <v>0.001412647514369668</v>
       </c>
       <c r="J12">
-        <v>0.2506371479213719</v>
+        <v>0.001534892009677796</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>59.46893727059521</v>
+        <v>0.4167241158204444</v>
       </c>
       <c r="R12">
-        <v>59.46893727059521</v>
+        <v>3.750517042384</v>
       </c>
       <c r="S12">
-        <v>0.001788933171750372</v>
+        <v>1.141742384211419E-05</v>
       </c>
       <c r="T12">
-        <v>0.001788933171750372</v>
+        <v>1.276674598551899E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1219,49 +1219,49 @@
         <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>17.7038186654947</v>
+        <v>0.1055886666666667</v>
       </c>
       <c r="H13">
-        <v>17.7038186654947</v>
+        <v>0.316766</v>
       </c>
       <c r="I13">
-        <v>0.2506371479213719</v>
+        <v>0.001412647514369668</v>
       </c>
       <c r="J13">
-        <v>0.2506371479213719</v>
+        <v>0.001534892009677796</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>3098.730851944044</v>
+        <v>19.61866403716422</v>
       </c>
       <c r="R13">
-        <v>3098.730851944044</v>
+        <v>176.567976334478</v>
       </c>
       <c r="S13">
-        <v>0.09321542751210338</v>
+        <v>0.000537512934876225</v>
       </c>
       <c r="T13">
-        <v>0.09321542751210338</v>
+        <v>0.0006010367310866925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>17.7038186654947</v>
+        <v>0.1055886666666667</v>
       </c>
       <c r="H14">
-        <v>17.7038186654947</v>
+        <v>0.316766</v>
       </c>
       <c r="I14">
-        <v>0.2506371479213719</v>
+        <v>0.001412647514369668</v>
       </c>
       <c r="J14">
-        <v>0.2506371479213719</v>
+        <v>0.001534892009677796</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>2046.03581836149</v>
+        <v>12.38971336279089</v>
       </c>
       <c r="R14">
-        <v>2046.03581836149</v>
+        <v>111.507420265118</v>
       </c>
       <c r="S14">
-        <v>0.06154845729631203</v>
+        <v>0.0003394538577801922</v>
       </c>
       <c r="T14">
-        <v>0.06154845729631203</v>
+        <v>0.00037957084154999</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>26</v>
@@ -1343,49 +1343,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>17.7038186654947</v>
+        <v>0.1055886666666667</v>
       </c>
       <c r="H15">
-        <v>17.7038186654947</v>
+        <v>0.316766</v>
       </c>
       <c r="I15">
-        <v>0.2506371479213719</v>
+        <v>0.001412647514369668</v>
       </c>
       <c r="J15">
-        <v>0.2506371479213719</v>
+        <v>0.001534892009677796</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>2401.581506515704</v>
+        <v>14.75751049267356</v>
       </c>
       <c r="R15">
-        <v>2401.581506515704</v>
+        <v>132.817594434062</v>
       </c>
       <c r="S15">
-        <v>0.07224391453506759</v>
+        <v>0.0004043268573923869</v>
       </c>
       <c r="T15">
-        <v>0.07224391453506759</v>
+        <v>0.0004521105947220331</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,371 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1055886666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.316766</v>
+      </c>
+      <c r="I16">
+        <v>0.001412647514369668</v>
+      </c>
+      <c r="J16">
+        <v>0.001534892009677796</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>41.458574</v>
+      </c>
+      <c r="N16">
+        <v>82.917148</v>
+      </c>
+      <c r="O16">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P16">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q16">
+        <v>4.377555550561333</v>
+      </c>
+      <c r="R16">
+        <v>26.265333303368</v>
+      </c>
+      <c r="S16">
+        <v>0.0001199364404787496</v>
+      </c>
+      <c r="T16">
+        <v>8.940709633356183E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>17.858963</v>
+      </c>
+      <c r="H17">
+        <v>35.717926</v>
+      </c>
+      <c r="I17">
+        <v>0.2389311323611423</v>
+      </c>
+      <c r="J17">
+        <v>0.1730714761674637</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>3.946674666666667</v>
+      </c>
+      <c r="N17">
+        <v>11.840024</v>
+      </c>
+      <c r="O17">
+        <v>0.008082287850277156</v>
+      </c>
+      <c r="P17">
+        <v>0.008317683527585098</v>
+      </c>
+      <c r="Q17">
+        <v>70.48351684503733</v>
+      </c>
+      <c r="R17">
+        <v>422.9011010702239</v>
+      </c>
+      <c r="S17">
+        <v>0.001931110188135423</v>
+      </c>
+      <c r="T17">
+        <v>0.00143955376641295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>17.858963</v>
+      </c>
+      <c r="H18">
+        <v>35.717926</v>
+      </c>
+      <c r="I18">
+        <v>0.2389311323611423</v>
+      </c>
+      <c r="J18">
+        <v>0.1730714761674637</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>185.8027443333333</v>
+      </c>
+      <c r="N18">
+        <v>557.408233</v>
+      </c>
+      <c r="O18">
+        <v>0.3805003933455167</v>
+      </c>
+      <c r="P18">
+        <v>0.3915824222792467</v>
+      </c>
+      <c r="Q18">
+        <v>3318.244336347459</v>
+      </c>
+      <c r="R18">
+        <v>19909.46601808476</v>
+      </c>
+      <c r="S18">
+        <v>0.09091338984590436</v>
+      </c>
+      <c r="T18">
+        <v>0.06777174786510036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>17.7038186654947</v>
-      </c>
-      <c r="H16">
-        <v>17.7038186654947</v>
-      </c>
-      <c r="I16">
-        <v>0.2506371479213719</v>
-      </c>
-      <c r="J16">
-        <v>0.2506371479213719</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="N16">
-        <v>41.0100219979199</v>
-      </c>
-      <c r="O16">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="P16">
-        <v>0.08713957841951724</v>
-      </c>
-      <c r="Q16">
-        <v>726.0339929191226</v>
-      </c>
-      <c r="R16">
-        <v>726.0339929191226</v>
-      </c>
-      <c r="S16">
-        <v>0.02184041540613852</v>
-      </c>
-      <c r="T16">
-        <v>0.02184041540613852</v>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>17.858963</v>
+      </c>
+      <c r="H19">
+        <v>35.717926</v>
+      </c>
+      <c r="I19">
+        <v>0.2389311323611423</v>
+      </c>
+      <c r="J19">
+        <v>0.1730714761674637</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>117.3394243333333</v>
+      </c>
+      <c r="N19">
+        <v>352.018273</v>
+      </c>
+      <c r="O19">
+        <v>0.2402962199184265</v>
+      </c>
+      <c r="P19">
+        <v>0.2472948188906589</v>
+      </c>
+      <c r="Q19">
+        <v>2095.5604376103</v>
+      </c>
+      <c r="R19">
+        <v>12573.3626256618</v>
+      </c>
+      <c r="S19">
+        <v>0.05741424792721171</v>
+      </c>
+      <c r="T19">
+        <v>0.04279967935397192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.858963</v>
+      </c>
+      <c r="H20">
+        <v>35.717926</v>
+      </c>
+      <c r="I20">
+        <v>0.2389311323611423</v>
+      </c>
+      <c r="J20">
+        <v>0.1730714761674637</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>139.7641523333333</v>
+      </c>
+      <c r="N20">
+        <v>419.292457</v>
+      </c>
+      <c r="O20">
+        <v>0.2862192112890951</v>
+      </c>
+      <c r="P20">
+        <v>0.2945553119511906</v>
+      </c>
+      <c r="Q20">
+        <v>2496.042825247363</v>
+      </c>
+      <c r="R20">
+        <v>14976.25695148418</v>
+      </c>
+      <c r="S20">
+        <v>0.06838668025681653</v>
+      </c>
+      <c r="T20">
+        <v>0.05097912265236031</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.858963</v>
+      </c>
+      <c r="H21">
+        <v>35.717926</v>
+      </c>
+      <c r="I21">
+        <v>0.2389311323611423</v>
+      </c>
+      <c r="J21">
+        <v>0.1730714761674637</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>41.458574</v>
+      </c>
+      <c r="N21">
+        <v>82.917148</v>
+      </c>
+      <c r="O21">
+        <v>0.0849018875966847</v>
+      </c>
+      <c r="P21">
+        <v>0.05824976335131885</v>
+      </c>
+      <c r="Q21">
+        <v>740.4071390987619</v>
+      </c>
+      <c r="R21">
+        <v>2961.628556395048</v>
+      </c>
+      <c r="S21">
+        <v>0.0202857041430743</v>
+      </c>
+      <c r="T21">
+        <v>0.01008137252961818</v>
       </c>
     </row>
   </sheetData>
